--- a/Questionnaire/Chinese_responses.xlsx
+++ b/Questionnaire/Chinese_responses.xlsx
@@ -57,9 +57,6 @@
     <t>Yilong</t>
   </si>
   <si>
-    <t>自由职业</t>
-  </si>
-  <si>
     <t>36 ~ 42</t>
   </si>
   <si>
@@ -79,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>艺术&amp;音乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Asia （亚洲）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IT related （信息技术）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bank （银行)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No, I've never played it before. （不知道，没玩过）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>In Wechat small program, there is a sth. Called carrot vs. Sth. Or similar. i微信小程序游戏里的萝卜大战什么什么</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,10 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Still eyesight to prevent from feeling dizzy. Simple and small games with a sense of design. 静止的视野，这样不晕。有设计感的、简洁的、小型的游戏。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I hope to see my opponent not wearing clothes and without mosaic. 没穿衣服且没有马赛克还正面对着屏幕的人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,6 +315,22 @@
   </si>
   <si>
     <t>What would you like to see in a tower defence game that you haven't seen  before? eg. mechanic, style. 你想在塔防游戏中见什么没见过的元素？比如什么置物、类型、设计？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Free （自由职业）</t>
+  </si>
+  <si>
+    <t>Arts &amp; music （艺术&amp;音乐）</t>
+  </si>
+  <si>
+    <t>IT related （信息技术）</t>
+  </si>
+  <si>
+    <t>No, I've never played it before. （不知道，没玩过）</t>
+  </si>
+  <si>
+    <t>Still eyesight to prevent from feeling dizzy. Simple and small games with a sense of design. 静止的视野，这样不晕。有设计感的、简洁的、小型的游戏。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,7 +384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -406,6 +403,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -688,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -715,49 +713,49 @@
   <sheetData>
     <row r="1" spans="1:26" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -779,39 +777,39 @@
         <v>44530.70888888889</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -833,43 +831,43 @@
         <v>44530.722453703704</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -891,41 +889,41 @@
         <v>44530.731180555558</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="K4" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -947,43 +945,43 @@
         <v>44530.754733796297</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1005,43 +1003,43 @@
         <v>44530.780381944445</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1063,43 +1061,43 @@
         <v>44531.138333333336</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="E7" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="F7" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1121,43 +1119,43 @@
         <v>44531.342175925929</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="O8" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
